--- a/data_year/zb/文化/电视节目进出口情况/电视节目进口总额.xlsx
+++ b/data_year/zb/文化/电视节目进出口情况/电视节目进口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW14"/>
+  <dimension ref="A1:AW13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,7 +678,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -702,33 +702,33 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>45.01</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>2901</v>
+        <v>318</v>
       </c>
       <c r="X2" t="n">
-        <v>3578.01</v>
+        <v>826</v>
       </c>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>403</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>452</v>
+        <v>646</v>
       </c>
       <c r="AB2" t="n">
-        <v>7152.38</v>
+        <v>4937</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="n">
-        <v>334.25</v>
+        <v>136</v>
       </c>
       <c r="AE2" t="n">
-        <v>145</v>
+        <v>551</v>
       </c>
       <c r="AF2" t="n">
-        <v>7029.34</v>
+        <v>13593</v>
       </c>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
@@ -737,1565 +737,1538 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v>18</v>
+      </c>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="n">
-        <v>7572.18</v>
+        <v>2091.8</v>
       </c>
       <c r="AR2" t="n">
-        <v>7967.58</v>
+        <v>2242.8</v>
       </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="n">
-        <v>878.26</v>
+        <v>247</v>
       </c>
       <c r="AU2" t="n">
-        <v>24293.23</v>
+        <v>21449.75</v>
       </c>
       <c r="AV2" t="n">
-        <v>45420.67</v>
+        <v>43046.75</v>
       </c>
       <c r="AW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>14571.68</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14697.19</v>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>2656.49</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3233.35</v>
+      </c>
+      <c r="I3" t="n">
+        <v>31.88</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>5836.88</v>
+      </c>
+      <c r="L3" t="n">
+        <v>8948.690000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>551.51</v>
+      </c>
+      <c r="N3" t="n">
+        <v>50</v>
+      </c>
+      <c r="O3" t="n">
+        <v>33447.22</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39983.61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>621.39</v>
+      </c>
       <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>37</v>
+      </c>
+      <c r="T3" t="n">
+        <v>779.02</v>
+      </c>
+      <c r="U3" t="n">
+        <v>32</v>
+      </c>
       <c r="V3" t="n">
-        <v>19.5</v>
+        <v>50</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.5</v>
+        <v>575</v>
       </c>
       <c r="X3" t="n">
-        <v>1567.14</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+        <v>783.21</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>33</v>
+      </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="AA3" t="n">
-        <v>2266</v>
+        <v>67</v>
       </c>
       <c r="AB3" t="n">
-        <v>7192.98</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
+        <v>6094.29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1988.5</v>
+      </c>
       <c r="AD3" t="n">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
+        <v>401.01</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1036</v>
+      </c>
       <c r="AF3" t="n">
-        <v>12147.42</v>
-      </c>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+        <v>6633.84</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1011.07</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>491.01</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1036</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>7178.6</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1041.07</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>86.75</v>
+      </c>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="n">
-        <v>6712.5</v>
+        <v>9487.17</v>
       </c>
       <c r="AR3" t="n">
-        <v>7087.53</v>
-      </c>
-      <c r="AS3" t="inlineStr"/>
+        <v>9492.17</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>5</v>
+      </c>
       <c r="AT3" t="n">
-        <v>127.5</v>
+        <v>702.01</v>
       </c>
       <c r="AU3" t="n">
-        <v>26887.15</v>
+        <v>34587.22</v>
       </c>
       <c r="AV3" t="n">
-        <v>49145.63</v>
-      </c>
-      <c r="AW3" t="inlineStr"/>
+        <v>54122.27</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>3682.96</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>107</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5247.52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5495.52</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.95</v>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>5288.51</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5431.33</v>
+      </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3919.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8215.52</v>
+      </c>
+      <c r="M4" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>966.64</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37641.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>43427.98</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>198.37</v>
+      </c>
       <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>105</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2132.34</v>
+      </c>
+      <c r="U4" t="n">
+        <v>121.68</v>
+      </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>821.24</v>
       </c>
       <c r="W4" t="n">
-        <v>318</v>
+        <v>2084</v>
       </c>
       <c r="X4" t="n">
-        <v>826</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>3086.07</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>26.58</v>
+      </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>111.44</v>
       </c>
       <c r="AA4" t="n">
-        <v>646</v>
+        <v>999.8200000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>4937</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
+        <v>8766.07</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3471.91</v>
+      </c>
       <c r="AD4" t="n">
-        <v>136</v>
+        <v>410.93</v>
       </c>
       <c r="AE4" t="n">
-        <v>551</v>
+        <v>838</v>
       </c>
       <c r="AF4" t="n">
-        <v>13593</v>
-      </c>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+        <v>8144.64</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>2121.89</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>410.93</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>838</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8203.83</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2181.08</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO4" t="inlineStr"/>
+        <v>3.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.3</v>
+      </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="n">
-        <v>2091.8</v>
+        <v>21067.76</v>
       </c>
       <c r="AR4" t="n">
-        <v>2242.8</v>
-      </c>
-      <c r="AS4" t="inlineStr"/>
+        <v>21144.38</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>72.44</v>
+      </c>
       <c r="AT4" t="n">
-        <v>247</v>
+        <v>1489.01</v>
       </c>
       <c r="AU4" t="n">
-        <v>21449.75</v>
+        <v>39583.88</v>
       </c>
       <c r="AV4" t="n">
-        <v>43046.75</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
+        <v>62533.52</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5976.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>14571.68</v>
+        <v>6535.74</v>
       </c>
       <c r="D5" t="n">
-        <v>14697.19</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>8557.01</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>111.09</v>
+      </c>
       <c r="G5" t="n">
-        <v>2656.49</v>
+        <v>1830</v>
       </c>
       <c r="H5" t="n">
-        <v>3233.35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>31.88</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>2676.48</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>712.41</v>
+      </c>
       <c r="K5" t="n">
-        <v>5836.88</v>
+        <v>4368.47</v>
       </c>
       <c r="L5" t="n">
-        <v>8948.690000000001</v>
+        <v>12626.49</v>
       </c>
       <c r="M5" t="n">
-        <v>551.51</v>
+        <v>3421.61</v>
       </c>
       <c r="N5" t="n">
-        <v>50</v>
+        <v>2853.59</v>
       </c>
       <c r="O5" t="n">
-        <v>22506.57</v>
+        <v>20138.69</v>
       </c>
       <c r="P5" t="n">
-        <v>26522.96</v>
+        <v>33834.88</v>
       </c>
       <c r="Q5" t="n">
-        <v>621.39</v>
+        <v>3471.61</v>
       </c>
       <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
-        <v>37</v>
-      </c>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="n">
-        <v>779.02</v>
+        <v>994.3200000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>32</v>
+        <v>389.92</v>
       </c>
       <c r="V5" t="n">
-        <v>50</v>
-      </c>
-      <c r="W5" t="n">
-        <v>575</v>
-      </c>
+        <v>1970.09</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>783.21</v>
+        <v>2291.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>161</v>
+        <v>419.61</v>
       </c>
       <c r="AA5" t="n">
-        <v>67</v>
+        <v>1938.98</v>
       </c>
       <c r="AB5" t="n">
-        <v>6094.29</v>
+        <v>12804.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>1988.5</v>
+        <v>4178.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>401.01</v>
+        <v>1146.83</v>
       </c>
       <c r="AE5" t="n">
-        <v>1036</v>
+        <v>2420</v>
       </c>
       <c r="AF5" t="n">
-        <v>6633.84</v>
+        <v>10455.58</v>
       </c>
       <c r="AG5" t="n">
-        <v>1011.07</v>
+        <v>1097.03</v>
       </c>
       <c r="AH5" t="n">
-        <v>491.01</v>
+        <v>1159.18</v>
       </c>
       <c r="AI5" t="n">
-        <v>504</v>
+        <v>2420</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6473.6</v>
+        <v>10898.4</v>
       </c>
       <c r="AK5" t="n">
-        <v>1041.07</v>
+        <v>1232.89</v>
       </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="n">
-        <v>86.75</v>
+        <v>126.36</v>
       </c>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>60</v>
+      </c>
       <c r="AQ5" t="n">
-        <v>9487.17</v>
+        <v>7404.48</v>
       </c>
       <c r="AR5" t="n">
-        <v>9492.17</v>
+        <v>7683.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
-        <v>702.01</v>
+        <v>4432.38</v>
       </c>
       <c r="AU5" t="n">
-        <v>34563.57</v>
+        <v>24497.67</v>
       </c>
       <c r="AV5" t="n">
-        <v>54098.62</v>
+        <v>58658.06</v>
       </c>
       <c r="AW5" t="n">
-        <v>3682.96</v>
+        <v>9273.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>107</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>5247.52</v>
+        <v>9329.66</v>
       </c>
       <c r="D6" t="n">
-        <v>5495.52</v>
-      </c>
-      <c r="E6" t="n">
-        <v>16.95</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>11072.1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1146.83</v>
+      </c>
       <c r="G6" t="n">
-        <v>5288.51</v>
+        <v>3661.72</v>
       </c>
       <c r="H6" t="n">
-        <v>5431.33</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>5055.92</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
       <c r="J6" t="n">
-        <v>38.4</v>
+        <v>248.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3919.25</v>
+        <v>14800.29</v>
       </c>
       <c r="L6" t="n">
-        <v>8215.52</v>
+        <v>21434.97</v>
       </c>
       <c r="M6" t="n">
-        <v>82.40000000000001</v>
+        <v>2175.16</v>
       </c>
       <c r="N6" t="n">
-        <v>966.64</v>
+        <v>9779.809999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>37641.06</v>
+        <v>157382.73</v>
       </c>
       <c r="P6" t="n">
-        <v>43427.98</v>
+        <v>175847.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.37</v>
+        <v>2189.94</v>
       </c>
       <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
-        <v>105</v>
-      </c>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
-        <v>2132.34</v>
+        <v>1838.16</v>
       </c>
       <c r="U6" t="n">
-        <v>121.68</v>
+        <v>287.17</v>
       </c>
       <c r="V6" t="n">
-        <v>821.24</v>
+        <v>8384.18</v>
       </c>
       <c r="W6" t="n">
-        <v>2084</v>
+        <v>85462</v>
       </c>
       <c r="X6" t="n">
-        <v>3086.07</v>
+        <v>93939.99000000001</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.58</v>
+        <v>2.64</v>
       </c>
       <c r="Z6" t="n">
-        <v>111.44</v>
+        <v>229.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>999.8200000000001</v>
+        <v>1371.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>8766.07</v>
+        <v>9961.59</v>
       </c>
       <c r="AC6" t="n">
-        <v>3471.91</v>
+        <v>1472.11</v>
       </c>
       <c r="AD6" t="n">
-        <v>410.93</v>
+        <v>1018.98</v>
       </c>
       <c r="AE6" t="n">
-        <v>838</v>
+        <v>10784.37</v>
       </c>
       <c r="AF6" t="n">
-        <v>8144.64</v>
+        <v>20058.78</v>
       </c>
       <c r="AG6" t="n">
-        <v>2121.89</v>
+        <v>1077.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>410.93</v>
+        <v>1018.98</v>
       </c>
       <c r="AI6" t="n">
-        <v>838</v>
+        <v>11053.17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8203.83</v>
+        <v>21271.36</v>
       </c>
       <c r="AK6" t="n">
-        <v>2181.08</v>
+        <v>1220.72</v>
       </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="n">
-        <v>3.3</v>
+        <v>104.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.3</v>
+        <v>104.6</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="n">
-        <v>21067.76</v>
+        <v>44129.06</v>
       </c>
       <c r="AR6" t="n">
-        <v>21144.38</v>
+        <v>44295.12</v>
       </c>
       <c r="AS6" t="n">
-        <v>72.44</v>
+        <v>4.14</v>
       </c>
       <c r="AT6" t="n">
-        <v>1489.01</v>
+        <v>11027.99</v>
       </c>
       <c r="AU6" t="n">
-        <v>39583.88</v>
+        <v>169807.3</v>
       </c>
       <c r="AV6" t="n">
-        <v>62533.52</v>
+        <v>209023.51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5976.34</v>
+        <v>5274.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>6535.74</v>
+        <v>1039.83</v>
       </c>
       <c r="D7" t="n">
-        <v>8557.01</v>
+        <v>2837.83</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>111.09</v>
+        <v>1192.23</v>
       </c>
       <c r="G7" t="n">
-        <v>1830</v>
+        <v>636.36</v>
       </c>
       <c r="H7" t="n">
-        <v>2676.48</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>2494.27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>63.97</v>
+      </c>
       <c r="J7" t="n">
-        <v>712.41</v>
+        <v>2019.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4368.47</v>
+        <v>2228.49</v>
       </c>
       <c r="L7" t="n">
-        <v>12626.49</v>
+        <v>9613.07</v>
       </c>
       <c r="M7" t="n">
-        <v>3421.61</v>
+        <v>2268.38</v>
       </c>
       <c r="N7" t="n">
-        <v>2853.59</v>
+        <v>41459.15</v>
       </c>
       <c r="O7" t="n">
-        <v>20138.69</v>
+        <v>15759.39</v>
       </c>
       <c r="P7" t="n">
-        <v>33834.88</v>
+        <v>65627.35000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>3471.61</v>
+        <v>2530.68</v>
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
-        <v>994.3200000000001</v>
+        <v>1320.07</v>
       </c>
       <c r="U7" t="n">
-        <v>389.92</v>
+        <v>680.55</v>
       </c>
       <c r="V7" t="n">
-        <v>1970.09</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
+        <v>38083.72</v>
+      </c>
+      <c r="W7" t="n">
+        <v>627.53</v>
+      </c>
       <c r="X7" t="n">
-        <v>2291.7</v>
+        <v>38955.03</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>106.05</v>
       </c>
       <c r="Z7" t="n">
-        <v>419.61</v>
+        <v>864.38</v>
       </c>
       <c r="AA7" t="n">
-        <v>1938.98</v>
+        <v>1361.32</v>
       </c>
       <c r="AB7" t="n">
-        <v>12804.1</v>
+        <v>9641.370000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>4178.9</v>
+        <v>2265.95</v>
       </c>
       <c r="AD7" t="n">
-        <v>1146.83</v>
+        <v>1619.63</v>
       </c>
       <c r="AE7" t="n">
-        <v>2420</v>
+        <v>12275.9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10455.58</v>
+        <v>21658.77</v>
       </c>
       <c r="AG7" t="n">
-        <v>1097.03</v>
+        <v>1893.99</v>
       </c>
       <c r="AH7" t="n">
-        <v>1159.18</v>
+        <v>2148.63</v>
       </c>
       <c r="AI7" t="n">
-        <v>2420</v>
+        <v>12344.9</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10898.4</v>
+        <v>22785.17</v>
       </c>
       <c r="AK7" t="n">
-        <v>1232.89</v>
+        <v>2008.99</v>
       </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="n">
-        <v>126.36</v>
-      </c>
-      <c r="AO7" t="inlineStr"/>
+        <v>23.64</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>2</v>
+      </c>
       <c r="AP7" t="n">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7404.48</v>
+        <v>11227.18</v>
       </c>
       <c r="AR7" t="n">
-        <v>7683.2</v>
+        <v>11675.97</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="AT7" t="n">
-        <v>4432.38</v>
+        <v>44472.16</v>
       </c>
       <c r="AU7" t="n">
-        <v>24497.67</v>
+        <v>29465.61</v>
       </c>
       <c r="AV7" t="n">
-        <v>58658.06</v>
+        <v>99397.60000000001</v>
       </c>
       <c r="AW7" t="n">
-        <v>9273.32</v>
+        <v>7488.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
       <c r="C8" t="n">
-        <v>9329.66</v>
+        <v>2199.72</v>
       </c>
       <c r="D8" t="n">
-        <v>11072.1</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
+        <v>4283.71</v>
+      </c>
+      <c r="E8" t="n">
+        <v>134.99</v>
+      </c>
       <c r="F8" t="n">
-        <v>1146.83</v>
+        <v>4608.44</v>
       </c>
       <c r="G8" t="n">
-        <v>3661.72</v>
+        <v>535.3</v>
       </c>
       <c r="H8" t="n">
-        <v>5055.92</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
+        <v>5491.28</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>248.8</v>
+        <v>15182.02</v>
       </c>
       <c r="K8" t="n">
-        <v>14800.29</v>
+        <v>5256.47</v>
       </c>
       <c r="L8" t="n">
-        <v>21434.97</v>
+        <v>24207.26</v>
       </c>
       <c r="M8" t="n">
-        <v>2175.16</v>
+        <v>359.18</v>
       </c>
       <c r="N8" t="n">
-        <v>9779.809999999999</v>
+        <v>102194.84</v>
       </c>
       <c r="O8" t="n">
-        <v>157382.73</v>
+        <v>40215.63</v>
       </c>
       <c r="P8" t="n">
-        <v>175847.8</v>
+        <v>151047.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>2189.94</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+        <v>594.87</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
       <c r="T8" t="n">
-        <v>1838.16</v>
+        <v>1045.24</v>
       </c>
       <c r="U8" t="n">
-        <v>287.17</v>
+        <v>387.89</v>
       </c>
       <c r="V8" t="n">
-        <v>8384.18</v>
+        <v>82237.12</v>
       </c>
       <c r="W8" t="n">
-        <v>85462</v>
+        <v>671</v>
       </c>
       <c r="X8" t="n">
-        <v>93939.99000000001</v>
+        <v>84430.59</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.64</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>229.2</v>
+        <v>1168.22</v>
       </c>
       <c r="AA8" t="n">
-        <v>1371.4</v>
+        <v>3300.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>9961.59</v>
+        <v>10245.61</v>
       </c>
       <c r="AC8" t="n">
-        <v>1472.11</v>
+        <v>1473.49</v>
       </c>
       <c r="AD8" t="n">
-        <v>1018.98</v>
+        <v>2231.67</v>
       </c>
       <c r="AE8" t="n">
-        <v>10784.37</v>
+        <v>37926.07</v>
       </c>
       <c r="AF8" t="n">
-        <v>20058.78</v>
+        <v>47014.29</v>
       </c>
       <c r="AG8" t="n">
-        <v>1077.5</v>
+        <v>681</v>
       </c>
       <c r="AH8" t="n">
-        <v>1018.98</v>
+        <v>2280.83</v>
       </c>
       <c r="AI8" t="n">
-        <v>11053.17</v>
+        <v>37958.07</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21271.36</v>
+        <v>47530.81</v>
       </c>
       <c r="AK8" t="n">
-        <v>1220.72</v>
+        <v>745.65</v>
       </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="AP8" t="inlineStr"/>
+        <v>3.1</v>
+      </c>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>156.26</v>
+      </c>
       <c r="AQ8" t="n">
-        <v>44129.06</v>
+        <v>28983.4</v>
       </c>
       <c r="AR8" t="n">
-        <v>44295.12</v>
+        <v>29450.7</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.14</v>
+        <v>63</v>
       </c>
       <c r="AT8" t="n">
-        <v>11027.99</v>
+        <v>105644.89</v>
       </c>
       <c r="AU8" t="n">
-        <v>169807.3</v>
+        <v>81499.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>209023.51</v>
+        <v>209872.46</v>
       </c>
       <c r="AW8" t="n">
-        <v>5274.54</v>
+        <v>3201.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>240.14</v>
+      </c>
       <c r="C9" t="n">
-        <v>1039.83</v>
+        <v>1241.1</v>
       </c>
       <c r="D9" t="n">
-        <v>2837.83</v>
+        <v>1637.05</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>155.81</v>
       </c>
       <c r="F9" t="n">
-        <v>1192.23</v>
+        <v>649</v>
       </c>
       <c r="G9" t="n">
-        <v>636.36</v>
+        <v>800.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2494.27</v>
-      </c>
-      <c r="I9" t="n">
-        <v>63.97</v>
-      </c>
+        <v>2164.08</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>2019.2</v>
+        <v>2979.7</v>
       </c>
       <c r="K9" t="n">
-        <v>2228.49</v>
+        <v>38180.84</v>
       </c>
       <c r="L9" t="n">
-        <v>9613.07</v>
+        <v>44954.06</v>
       </c>
       <c r="M9" t="n">
-        <v>2268.38</v>
+        <v>241.18</v>
       </c>
       <c r="N9" t="n">
-        <v>41459.15</v>
+        <v>59570.95</v>
       </c>
       <c r="O9" t="n">
-        <v>15759.39</v>
+        <v>43735.34</v>
       </c>
       <c r="P9" t="n">
-        <v>65627.35000000001</v>
+        <v>110805.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2530.68</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>666.99</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21.6</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="n">
-        <v>1320.07</v>
+        <v>1804.19</v>
       </c>
       <c r="U9" t="n">
-        <v>680.55</v>
+        <v>250.5</v>
       </c>
       <c r="V9" t="n">
-        <v>38083.72</v>
+        <v>54926.12</v>
       </c>
       <c r="W9" t="n">
-        <v>627.53</v>
+        <v>2743</v>
       </c>
       <c r="X9" t="n">
-        <v>38955.03</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>106.05</v>
-      </c>
+        <v>57694.41</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>864.38</v>
+        <v>7511.66</v>
       </c>
       <c r="AA9" t="n">
-        <v>1361.32</v>
+        <v>6793.77</v>
       </c>
       <c r="AB9" t="n">
-        <v>9641.370000000001</v>
+        <v>24565.78</v>
       </c>
       <c r="AC9" t="n">
-        <v>2265.95</v>
+        <v>4030.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1619.63</v>
+        <v>15134.92</v>
       </c>
       <c r="AE9" t="n">
-        <v>12275.9</v>
+        <v>30921.38</v>
       </c>
       <c r="AF9" t="n">
-        <v>21658.77</v>
+        <v>51898.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>1893.99</v>
+        <v>992.05</v>
       </c>
       <c r="AH9" t="n">
-        <v>2148.63</v>
+        <v>15149.4</v>
       </c>
       <c r="AI9" t="n">
-        <v>12344.9</v>
+        <v>30923.58</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22785.17</v>
+        <v>53102.12</v>
       </c>
       <c r="AK9" t="n">
-        <v>2008.99</v>
+        <v>992.05</v>
       </c>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="n">
-        <v>23.64</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>2</v>
-      </c>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="n">
-        <v>164</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>11227.18</v>
-      </c>
+        <v>415.99</v>
+      </c>
+      <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="n">
-        <v>11675.97</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>67.73999999999999</v>
-      </c>
+        <v>415.99</v>
+      </c>
+      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="n">
-        <v>44472.16</v>
+        <v>82253.61</v>
       </c>
       <c r="AU9" t="n">
-        <v>29465.61</v>
+        <v>81452.89</v>
       </c>
       <c r="AV9" t="n">
-        <v>99397.60000000001</v>
+        <v>190277.88</v>
       </c>
       <c r="AW9" t="n">
-        <v>7488.17</v>
+        <v>5940.44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>236</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6704</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7333</v>
+      </c>
+      <c r="E10" t="n">
+        <v>99</v>
+      </c>
+      <c r="F10" t="n">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>2199.72</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4283.71</v>
-      </c>
-      <c r="E10" t="n">
-        <v>134.99</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4608.44</v>
-      </c>
       <c r="G10" t="n">
-        <v>535.3</v>
+        <v>6938</v>
       </c>
       <c r="H10" t="n">
-        <v>5491.28</v>
+        <v>7021</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>15182.02</v>
+        <v>14</v>
       </c>
       <c r="K10" t="n">
-        <v>5256.47</v>
+        <v>22025</v>
       </c>
       <c r="L10" t="n">
-        <v>24207.26</v>
+        <v>27891</v>
       </c>
       <c r="M10" t="n">
-        <v>359.18</v>
+        <v>974</v>
       </c>
       <c r="N10" t="n">
-        <v>102194.84</v>
+        <v>156428</v>
       </c>
       <c r="O10" t="n">
-        <v>40215.63</v>
+        <v>38293</v>
       </c>
       <c r="P10" t="n">
-        <v>151047.7</v>
+        <v>202627</v>
       </c>
       <c r="Q10" t="n">
-        <v>594.87</v>
+        <v>1073</v>
       </c>
       <c r="R10" t="n">
+        <v>42</v>
+      </c>
+      <c r="S10" t="n">
+        <v>200</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1379</v>
+      </c>
+      <c r="U10" t="n">
+        <v>102</v>
+      </c>
+      <c r="V10" t="n">
+        <v>156068</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2627</v>
+      </c>
+      <c r="X10" t="n">
+        <v>159743</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1</v>
       </c>
-      <c r="S10" t="n">
-        <v>25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1045.24</v>
-      </c>
-      <c r="U10" t="n">
-        <v>387.89</v>
-      </c>
-      <c r="V10" t="n">
-        <v>82237.12</v>
-      </c>
-      <c r="W10" t="n">
-        <v>671</v>
-      </c>
-      <c r="X10" t="n">
-        <v>84430.59</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>25</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1168.22</v>
+        <v>35112</v>
       </c>
       <c r="AA10" t="n">
-        <v>3300.8</v>
+        <v>5729</v>
       </c>
       <c r="AB10" t="n">
-        <v>10245.61</v>
+        <v>51882</v>
       </c>
       <c r="AC10" t="n">
-        <v>1473.49</v>
+        <v>3995</v>
       </c>
       <c r="AD10" t="n">
-        <v>2231.67</v>
+        <v>58933</v>
       </c>
       <c r="AE10" t="n">
-        <v>37926.07</v>
+        <v>33916</v>
       </c>
       <c r="AF10" t="n">
-        <v>47014.29</v>
+        <v>100856</v>
       </c>
       <c r="AG10" t="n">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="AH10" t="n">
-        <v>2280.83</v>
+        <v>59045</v>
       </c>
       <c r="AI10" t="n">
-        <v>37958.07</v>
+        <v>36435</v>
       </c>
       <c r="AJ10" t="n">
-        <v>47530.81</v>
+        <v>104726</v>
       </c>
       <c r="AK10" t="n">
-        <v>745.65</v>
-      </c>
-      <c r="AL10" t="inlineStr"/>
+        <v>1407</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>7</v>
+      </c>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="n">
-        <v>156.26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>28983.4</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="n">
-        <v>29450.7</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>63</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="n">
-        <v>105644.89</v>
+        <v>250634</v>
       </c>
       <c r="AU10" t="n">
-        <v>81499.5</v>
+        <v>80657</v>
       </c>
       <c r="AV10" t="n">
-        <v>209872.46</v>
+        <v>360621</v>
       </c>
       <c r="AW10" t="n">
-        <v>3201.9</v>
+        <v>6577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>240.14</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1241.1</v>
+        <v>5384</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.05</v>
-      </c>
-      <c r="E11" t="n">
-        <v>155.81</v>
-      </c>
-      <c r="F11" t="n">
-        <v>649</v>
-      </c>
+        <v>5438</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>800.2</v>
+        <v>2572</v>
       </c>
       <c r="H11" t="n">
-        <v>2164.08</v>
+        <v>2787</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>2979.7</v>
+        <v>895</v>
       </c>
       <c r="K11" t="n">
-        <v>38180.84</v>
+        <v>17214</v>
       </c>
       <c r="L11" t="n">
-        <v>44954.06</v>
+        <v>23151</v>
       </c>
       <c r="M11" t="n">
-        <v>241.18</v>
+        <v>1270</v>
       </c>
       <c r="N11" t="n">
-        <v>59570.95</v>
+        <v>27403</v>
       </c>
       <c r="O11" t="n">
-        <v>43735.34</v>
+        <v>28596</v>
       </c>
       <c r="P11" t="n">
-        <v>110805.79</v>
+        <v>61747</v>
       </c>
       <c r="Q11" t="n">
-        <v>666.99</v>
+        <v>1486</v>
       </c>
       <c r="R11" t="n">
-        <v>21.6</v>
+        <v>70</v>
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="n">
-        <v>1804.19</v>
+        <v>457</v>
       </c>
       <c r="U11" t="n">
-        <v>250.5</v>
+        <v>281</v>
       </c>
       <c r="V11" t="n">
-        <v>54926.12</v>
+        <v>26184</v>
       </c>
       <c r="W11" t="n">
-        <v>2743</v>
+        <v>2212</v>
       </c>
       <c r="X11" t="n">
-        <v>57694.41</v>
-      </c>
-      <c r="Y11" t="inlineStr"/>
+        <v>28766</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>150</v>
+      </c>
       <c r="Z11" t="n">
-        <v>7511.66</v>
+        <v>18568</v>
       </c>
       <c r="AA11" t="n">
-        <v>6793.77</v>
+        <v>1639</v>
       </c>
       <c r="AB11" t="n">
-        <v>24565.78</v>
+        <v>26281</v>
       </c>
       <c r="AC11" t="n">
-        <v>4030.9</v>
+        <v>2914</v>
       </c>
       <c r="AD11" t="n">
-        <v>15134.92</v>
+        <v>61065</v>
       </c>
       <c r="AE11" t="n">
-        <v>30921.38</v>
+        <v>3105</v>
       </c>
       <c r="AF11" t="n">
-        <v>51898.4</v>
+        <v>73392</v>
       </c>
       <c r="AG11" t="n">
-        <v>992.05</v>
+        <v>2746</v>
       </c>
       <c r="AH11" t="n">
-        <v>15149.4</v>
+        <v>62249</v>
       </c>
       <c r="AI11" t="n">
-        <v>30923.58</v>
+        <v>3558</v>
       </c>
       <c r="AJ11" t="n">
-        <v>53102.12</v>
+        <v>75818</v>
       </c>
       <c r="AK11" t="n">
-        <v>992.05</v>
+        <v>2842</v>
       </c>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="n">
-        <v>415.99</v>
-      </c>
-      <c r="AQ11" t="inlineStr"/>
+        <v>324</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1203</v>
+      </c>
       <c r="AR11" t="n">
-        <v>415.99</v>
+        <v>1527</v>
       </c>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="n">
-        <v>82253.61</v>
+        <v>108290</v>
       </c>
       <c r="AU11" t="n">
-        <v>81452.89</v>
+        <v>33793</v>
       </c>
       <c r="AV11" t="n">
-        <v>190277.88</v>
+        <v>164302</v>
       </c>
       <c r="AW11" t="n">
-        <v>5940.44</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>236</v>
+        <v>0.7</v>
       </c>
       <c r="C12" t="n">
-        <v>6704</v>
+        <v>7547</v>
       </c>
       <c r="D12" t="n">
-        <v>7333</v>
+        <v>7687.7</v>
       </c>
       <c r="E12" t="n">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>9.93</v>
       </c>
       <c r="G12" t="n">
-        <v>6938</v>
+        <v>5103.3</v>
       </c>
       <c r="H12" t="n">
-        <v>7021</v>
+        <v>5113.23</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>581.67</v>
       </c>
       <c r="K12" t="n">
-        <v>22025</v>
+        <v>14612.38</v>
       </c>
       <c r="L12" t="n">
-        <v>27891</v>
+        <v>18052.22</v>
       </c>
       <c r="M12" t="n">
-        <v>974</v>
+        <v>529.91</v>
       </c>
       <c r="N12" t="n">
-        <v>156428</v>
+        <v>26107.6</v>
       </c>
       <c r="O12" t="n">
-        <v>38293</v>
+        <v>30069.9</v>
       </c>
       <c r="P12" t="n">
-        <v>202627</v>
+        <v>59413.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1073</v>
+        <v>829.99</v>
       </c>
       <c r="R12" t="n">
-        <v>42</v>
-      </c>
-      <c r="S12" t="n">
-        <v>200</v>
-      </c>
+        <v>19.75</v>
+      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="n">
-        <v>1379</v>
+        <v>388.03</v>
       </c>
       <c r="U12" t="n">
-        <v>102</v>
+        <v>245.55</v>
       </c>
       <c r="V12" t="n">
-        <v>156068</v>
+        <v>24609.74</v>
       </c>
       <c r="W12" t="n">
-        <v>2627</v>
+        <v>2793.22</v>
       </c>
       <c r="X12" t="n">
-        <v>159743</v>
+        <v>27580.33</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>150.57</v>
       </c>
       <c r="Z12" t="n">
-        <v>35112</v>
+        <v>15459.89</v>
       </c>
       <c r="AA12" t="n">
-        <v>5729</v>
+        <v>1861.07</v>
       </c>
       <c r="AB12" t="n">
-        <v>51882</v>
+        <v>20957.96</v>
       </c>
       <c r="AC12" t="n">
-        <v>3995</v>
+        <v>1218.08</v>
       </c>
       <c r="AD12" t="n">
-        <v>58933</v>
+        <v>4169.67</v>
       </c>
       <c r="AE12" t="n">
-        <v>33916</v>
+        <v>5954</v>
       </c>
       <c r="AF12" t="n">
-        <v>100856</v>
+        <v>14942.65</v>
       </c>
       <c r="AG12" t="n">
-        <v>657</v>
+        <v>1441.17</v>
       </c>
       <c r="AH12" t="n">
-        <v>59045</v>
+        <v>4238.98</v>
       </c>
       <c r="AI12" t="n">
-        <v>36435</v>
+        <v>5954</v>
       </c>
       <c r="AJ12" t="n">
-        <v>104726</v>
+        <v>15396.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>1407</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>7</v>
-      </c>
+        <v>1450.17</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO12" t="inlineStr"/>
+        <v>66.65000000000001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>66.65000000000001</v>
+      </c>
       <c r="AP12" t="n">
-        <v>99</v>
+        <v>905.5599999999999</v>
       </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="n">
-        <v>99</v>
-      </c>
-      <c r="AS12" t="inlineStr"/>
+        <v>909.11</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>3.55</v>
+      </c>
       <c r="AT12" t="n">
-        <v>250634</v>
+        <v>45826.22</v>
       </c>
       <c r="AU12" t="n">
-        <v>80657</v>
+        <v>37884.97</v>
       </c>
       <c r="AV12" t="n">
-        <v>360621</v>
+        <v>96222.89</v>
       </c>
       <c r="AW12" t="n">
-        <v>6577</v>
+        <v>3810.44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>35</v>
+      </c>
       <c r="C13" t="n">
-        <v>5384</v>
+        <v>2698.31</v>
       </c>
       <c r="D13" t="n">
-        <v>5438</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
+        <v>2831.31</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>2572</v>
+        <v>2099.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2787</v>
+        <v>2120.03</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>895</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>17214</v>
+        <v>39139.07</v>
       </c>
       <c r="L13" t="n">
-        <v>23151</v>
+        <v>43449.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1270</v>
+        <v>1508.84</v>
       </c>
       <c r="N13" t="n">
-        <v>27403</v>
+        <v>34110.18</v>
       </c>
       <c r="O13" t="n">
-        <v>28596</v>
+        <v>47717.93</v>
       </c>
       <c r="P13" t="n">
-        <v>61747</v>
+        <v>86314.75999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>1486</v>
-      </c>
-      <c r="R13" t="n">
-        <v>70</v>
-      </c>
+        <v>1655.43</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>457</v>
+        <v>290.67</v>
       </c>
       <c r="U13" t="n">
-        <v>281</v>
+        <v>217.41</v>
       </c>
       <c r="V13" t="n">
-        <v>26184</v>
+        <v>33252.68</v>
       </c>
       <c r="W13" t="n">
-        <v>2212</v>
+        <v>2727</v>
       </c>
       <c r="X13" t="n">
-        <v>28766</v>
+        <v>36000.78</v>
       </c>
       <c r="Y13" t="n">
-        <v>150</v>
+        <v>7.05</v>
       </c>
       <c r="Z13" t="n">
-        <v>18568</v>
+        <v>7850.95</v>
       </c>
       <c r="AA13" t="n">
-        <v>1639</v>
+        <v>743.34</v>
       </c>
       <c r="AB13" t="n">
-        <v>26281</v>
+        <v>13917.55</v>
       </c>
       <c r="AC13" t="n">
-        <v>2914</v>
+        <v>3556.04</v>
       </c>
       <c r="AD13" t="n">
-        <v>61065</v>
+        <v>15306.56</v>
       </c>
       <c r="AE13" t="n">
-        <v>3105</v>
+        <v>14678.76</v>
       </c>
       <c r="AF13" t="n">
-        <v>73392</v>
+        <v>32040.52</v>
       </c>
       <c r="AG13" t="n">
-        <v>2746</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="n">
-        <v>62249</v>
+        <v>15459.02</v>
       </c>
       <c r="AI13" t="n">
-        <v>3558</v>
+        <v>14678.76</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75818</v>
+        <v>32527.7</v>
       </c>
       <c r="AK13" t="n">
-        <v>2842</v>
+        <v>93.48</v>
       </c>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
+      <c r="AN13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>3</v>
+      </c>
       <c r="AP13" t="n">
-        <v>324</v>
+        <v>716</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1203</v>
+        <v>1040</v>
       </c>
       <c r="AR13" t="n">
-        <v>1527</v>
+        <v>1756</v>
       </c>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="n">
-        <v>108290</v>
+        <v>57420.15</v>
       </c>
       <c r="AU13" t="n">
-        <v>33793</v>
+        <v>63140.03</v>
       </c>
       <c r="AV13" t="n">
-        <v>164302</v>
+        <v>133053.68</v>
       </c>
       <c r="AW13" t="n">
-        <v>7522</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7547</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7687.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>140</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="G14" t="n">
-        <v>5103.3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>5113.23</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>581.67</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14612.38</v>
-      </c>
-      <c r="L14" t="n">
-        <v>18052.22</v>
-      </c>
-      <c r="M14" t="n">
-        <v>529.91</v>
-      </c>
-      <c r="N14" t="n">
-        <v>26107.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>30069.9</v>
-      </c>
-      <c r="P14" t="n">
-        <v>59413.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>829.99</v>
-      </c>
-      <c r="R14" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="n">
-        <v>388.03</v>
-      </c>
-      <c r="U14" t="n">
-        <v>245.55</v>
-      </c>
-      <c r="V14" t="n">
-        <v>24609.74</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2793.22</v>
-      </c>
-      <c r="X14" t="n">
-        <v>27580.33</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>150.57</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>15459.89</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1861.07</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>20957.96</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1218.08</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>4169.67</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>5954</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14942.65</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1441.17</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>4238.98</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>5954</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15396.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1450.17</v>
-      </c>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="n">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>66.65000000000001</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>905.5599999999999</v>
-      </c>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="n">
-        <v>909.11</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>45826.22</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>37884.97</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>96222.89</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3810.44</v>
+        <v>5525.36</v>
       </c>
     </row>
   </sheetData>
